--- a/詳細設計書_TCS厦門作成依頼_20250912 (1).xlsx
+++ b/詳細設計書_TCS厦門作成依頼_20250912 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp1\A_WorkFile\IC详细设计\NEXT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B76FA19-3F68-42BE-926E-9DC1750B47A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F90216-F1A0-4909-9DF7-DB620CB280F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-2460" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="274">
   <si>
     <t>SP厦門依頼</t>
     <rPh sb="2" eb="4">
@@ -1933,53 +1933,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>自動凍結サイン削除</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>担当者、登録月、入力端末番号　ラインNo削除</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>入力端末番号廃止</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>入力端末番号、担当者、科目細目　削除
-勘定科目コード追加</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>入力端末番号 削除</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>入力端末番号　削除</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>組織マスタの組織カテゴリーと物理名が被るため変更する必要あり</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>発注納入ファイル（lc_trn_order_delivery）は廃止</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>GIMACからD構成からの抽出廃止、構成変更あり
-新規追加外注SU</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>入力端末番号、ラインNo 削除</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>LDAS0300</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>自動凍結サインチェックは廃止</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1989,18 +1943,89 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>NEXT有:
+lc_mst_calendar_sum、ld_mst_slip_date、lz_function_parameter、la_itemmast</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>稼動ステータス =  'U' 稼動メッセージ= '有償支給残高 報告可能' 
+                                               ：PYMAC　無
+　　　　　　　　　　　　  ：NEXT　有</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ld_jp_st_cntl_mast(棚卸管理マスタ)                           ：PYMAC　無
+　　　　　　　　　　　　  ：NEXT　有</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GIMACは担当者、登録月、入力端末番号　ラインNo削除</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GIMAC：入力端末番号 削除</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GIMAC：入力端末番号、ラインNo 削除</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GIMAC：入力端末番号　削除</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GIMAC：組織マスタの組織カテゴリーと物理名が被るため変更する必要あり</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GIMAC：発注納入ファイル（lc_trn_order_delivery）は廃止</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GIMAC：D構成からの抽出廃止、構成変更あり
+新規追加外注SU</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">PYMAC3：auto_freeze_pri と関連 flag チェックがある
+      <t>PYMAC3：auto_freeze_pri と関連 flag チェックがある
 NEXT: auto_freeze_pri と関連 flag チェックが削除
-PYMAC3: item_class = A/M/K チェックがある
+PYMAC3: item_class =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>A/M/K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> チェックがある
 NEXT: </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>对</t>
     </r>
@@ -2010,24 +2035,41 @@
         <rFont val="Meiryo UI"/>
         <family val="2"/>
       </rPr>
-      <t>item_class = M/K チェックがある</t>
+      <t xml:space="preserve">item_class = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>M/K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> チェックがある</t>
     </r>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>NEXT有:
-lc_mst_calendar_sum、ld_mst_slip_date、lz_function_parameter、la_itemmast</t>
+    <t>GIMAC：自動凍結サイン削除
+GIMACはNEXTをベースに設計</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>稼動ステータス =  'U' 稼動メッセージ= '有償支給残高 報告可能' 
-                                               ：PYMAC　無
-　　　　　　　　　　　　  ：NEXT　有</t>
+    <t>GIMAC：入力端末番号廃止
+GIMACはNEXTをベースに設計</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ld_jp_st_cntl_mast(棚卸管理マスタ)                           ：PYMAC　無
-　　　　　　　　　　　　  ：NEXT　有</t>
+    <t>GIMAC：入力端末番号、担当者、科目細目　削除
+勘定科目コード追加
+GIMACはNEXTをベースに設計</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2035,7 +2077,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2183,6 +2225,24 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
     </font>
@@ -2774,7 +2834,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2937,110 +2997,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3060,9 +3018,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3099,8 +3054,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3120,8 +3075,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3147,8 +3102,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3175,6 +3128,114 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14022,1762 +14083,1760 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC9FBEC-0C9C-44A6-9D54-D2DB300F86B0}">
   <dimension ref="A2:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="89" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="89" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.875" style="89" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="89" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="89" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="89" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="89" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="89" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="89"/>
-    <col min="12" max="12" width="10" style="89" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="89" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="89" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="89" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" style="89" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.125" style="89" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="89" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" style="89" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="52" style="89" customWidth="1"/>
-    <col min="21" max="21" width="26.875" style="89" customWidth="1"/>
-    <col min="22" max="22" width="56.25" style="89" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="89"/>
+    <col min="1" max="1" width="4.125" style="73" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.875" style="73" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="73" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="73" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="73" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="73" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="73" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="73"/>
+    <col min="12" max="12" width="10" style="73" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="73" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" style="73" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="73" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="73" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="73" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="73" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="73" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="52" style="73" customWidth="1"/>
+    <col min="21" max="21" width="26.875" style="73" customWidth="1"/>
+    <col min="22" max="22" width="56.25" style="73" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="73"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="28.5">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" thickBot="1"/>
     <row r="5" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="94" t="s">
+      <c r="G5" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="95" t="s">
+      <c r="H5" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="98" t="s">
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="101" t="s">
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="U5" s="102"/>
-      <c r="V5" s="103" t="s">
+      <c r="U5" s="129"/>
+      <c r="V5" s="130" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="104"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="108" t="s">
+      <c r="A6" s="133"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="109" t="s">
+      <c r="I6" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="109" t="s">
+      <c r="J6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="110" t="s">
+      <c r="K6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="110" t="s">
+      <c r="L6" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="111" t="s">
+      <c r="M6" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="108" t="s">
+      <c r="N6" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="109" t="s">
+      <c r="O6" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="109" t="s">
+      <c r="P6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="110" t="s">
+      <c r="Q6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="110" t="s">
+      <c r="R6" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="112" t="s">
+      <c r="S6" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="113" t="s">
+      <c r="T6" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="114" t="s">
+      <c r="U6" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="V6" s="115"/>
+      <c r="V6" s="131"/>
     </row>
     <row r="7" spans="1:22" ht="28.5">
-      <c r="A7" s="116">
+      <c r="A7" s="81">
         <v>0</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="117" t="s">
+      <c r="E7" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="117" t="s">
+      <c r="F7" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="118" t="s">
+      <c r="G7" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="119" t="s">
+      <c r="H7" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="120" t="s">
+      <c r="I7" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="121">
+      <c r="J7" s="86">
         <v>45942</v>
       </c>
-      <c r="K7" s="117" t="s">
+      <c r="K7" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="117"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="117" t="s">
+      <c r="L7" s="82"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="117"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="124" t="s">
+      <c r="R7" s="82"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="125" t="s">
+      <c r="U7" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="126"/>
+      <c r="V7" s="91"/>
     </row>
-    <row r="8" spans="1:22" ht="42.75">
-      <c r="A8" s="127">
+    <row r="8" spans="1:22" ht="59.25">
+      <c r="A8" s="92">
         <f>ROW()-ROW($A$7)</f>
         <v>1</v>
       </c>
-      <c r="B8" s="128" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="128" t="s">
+      <c r="B8" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="128" t="s">
+      <c r="D8" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="128" t="s">
+      <c r="E8" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="128" t="s">
+      <c r="F8" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="129" t="s">
+      <c r="G8" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="130"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131" t="s">
+      <c r="H8" s="95"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="131"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="131" t="s">
+      <c r="L8" s="96"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="131"/>
-      <c r="S8" s="133"/>
-      <c r="T8" s="134" t="s">
+      <c r="R8" s="96"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="U8" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="V8" s="124" t="s">
         <v>271</v>
-      </c>
-      <c r="U8" s="135" t="s">
-        <v>270</v>
-      </c>
-      <c r="V8" s="134" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="71.25">
-      <c r="A9" s="136">
+      <c r="A9" s="101">
         <f>ROW()-ROW($A$7)</f>
         <v>2</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="102" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="137" t="s">
+      <c r="E9" s="102" t="s">
         <v>213</v>
       </c>
-      <c r="F9" s="137" t="s">
+      <c r="F9" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="138" t="s">
+      <c r="G9" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="139"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140" t="s">
+      <c r="H9" s="104"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="140"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="140"/>
-      <c r="Q9" s="140" t="s">
+      <c r="L9" s="105"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="140"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="134" t="s">
+      <c r="R9" s="105"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="U9" s="143" t="s">
-        <v>272</v>
-      </c>
-      <c r="V9" s="134" t="s">
-        <v>258</v>
+      <c r="U9" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="V9" s="124" t="s">
+        <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="136">
+    <row r="10" spans="1:22" ht="28.5">
+      <c r="A10" s="101">
         <f t="shared" ref="A10:A42" si="0">ROW()-ROW($A$7)</f>
         <v>3</v>
       </c>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="137" t="s">
+      <c r="D10" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="137" t="s">
+      <c r="E10" s="102" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="137" t="s">
+      <c r="F10" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="138" t="s">
+      <c r="G10" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="139"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140" t="s">
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="140"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="140" t="s">
+      <c r="L10" s="105"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="140"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="134" t="s">
+      <c r="R10" s="105"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="U10" s="144"/>
-      <c r="V10" s="134" t="s">
-        <v>259</v>
+      <c r="U10" s="109"/>
+      <c r="V10" s="99" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="42.75">
-      <c r="A11" s="136">
+      <c r="A11" s="101">
         <f>ROW()-ROW($A$7)</f>
         <v>4</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="102" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="102" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="102" t="s">
         <v>206</v>
       </c>
-      <c r="E11" s="137" t="s">
+      <c r="E11" s="102" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="137" t="s">
+      <c r="F11" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="138" t="s">
+      <c r="G11" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="139"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140" t="s">
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="140"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="140" t="s">
+      <c r="L11" s="105"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R11" s="140"/>
-      <c r="S11" s="142"/>
-      <c r="T11" s="134" t="s">
+      <c r="R11" s="105"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="124" t="s">
         <v>244</v>
       </c>
-      <c r="U11" s="143" t="s">
+      <c r="U11" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="V11" s="134" t="s">
-        <v>260</v>
+      <c r="V11" s="124" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="171">
-      <c r="A12" s="136">
+      <c r="A12" s="101">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="137" t="s">
+      <c r="D12" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="E12" s="137" t="s">
+      <c r="E12" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="F12" s="137" t="s">
+      <c r="F12" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="138" t="s">
+      <c r="G12" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140" t="s">
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="140"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="140"/>
-      <c r="Q12" s="140" t="s">
+      <c r="L12" s="105"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="140"/>
-      <c r="S12" s="142"/>
-      <c r="T12" s="134" t="s">
+      <c r="R12" s="105"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="U12" s="143" t="s">
+      <c r="U12" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="V12" s="134" t="s">
-        <v>261</v>
+      <c r="V12" s="124" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="85.5">
-      <c r="A13" s="136">
+      <c r="A13" s="101">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="102" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="137" t="s">
+      <c r="D13" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="E13" s="137" t="s">
+      <c r="E13" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="138" t="s">
+      <c r="G13" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="139"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="140" t="s">
+      <c r="H13" s="104"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="140"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="140"/>
-      <c r="Q13" s="140" t="s">
+      <c r="L13" s="105"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="140"/>
-      <c r="S13" s="142"/>
-      <c r="T13" s="134" t="s">
+      <c r="R13" s="105"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="U13" s="143" t="s">
+      <c r="U13" s="108" t="s">
         <v>239</v>
       </c>
-      <c r="V13" s="134" t="s">
-        <v>262</v>
+      <c r="V13" s="99" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="136">
+      <c r="A14" s="101">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="137" t="s">
+      <c r="D14" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="137" t="s">
+      <c r="E14" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="F14" s="137" t="s">
+      <c r="F14" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="138" t="s">
+      <c r="G14" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140" t="s">
+      <c r="H14" s="104"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="140"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="140" t="s">
+      <c r="L14" s="105"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R14" s="140"/>
-      <c r="S14" s="142"/>
-      <c r="T14" s="134"/>
-      <c r="U14" s="144"/>
-      <c r="V14" s="134" t="s">
-        <v>262</v>
+      <c r="R14" s="105"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="99" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="136">
+      <c r="A15" s="101">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="102" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="102" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="137" t="s">
+      <c r="D15" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="E15" s="137" t="s">
+      <c r="E15" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="F15" s="137" t="s">
+      <c r="F15" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="138" t="s">
+      <c r="G15" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="139"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140" t="s">
+      <c r="H15" s="104"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="140"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="140"/>
-      <c r="P15" s="140"/>
-      <c r="Q15" s="140" t="s">
+      <c r="L15" s="105"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="140"/>
-      <c r="S15" s="142"/>
-      <c r="T15" s="134" t="s">
+      <c r="R15" s="105"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="99" t="s">
         <v>245</v>
       </c>
-      <c r="U15" s="144"/>
-      <c r="V15" s="134" t="s">
-        <v>267</v>
+      <c r="U15" s="109"/>
+      <c r="V15" s="99" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="136">
+      <c r="A16" s="101">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="102" t="s">
         <v>224</v>
       </c>
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="102" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="137" t="s">
+      <c r="D16" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="E16" s="137" t="s">
+      <c r="E16" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="F16" s="137" t="s">
+      <c r="F16" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="138" t="s">
+      <c r="G16" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140" t="s">
+      <c r="H16" s="104"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="140"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="140"/>
-      <c r="P16" s="140"/>
-      <c r="Q16" s="140" t="s">
+      <c r="L16" s="105"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R16" s="140"/>
-      <c r="S16" s="142"/>
-      <c r="T16" s="134" t="s">
+      <c r="R16" s="105"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="99" t="s">
         <v>245</v>
       </c>
-      <c r="U16" s="144"/>
-      <c r="V16" s="134" t="s">
-        <v>263</v>
+      <c r="U16" s="109"/>
+      <c r="V16" s="99" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="136">
+      <c r="A17" s="101">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="102" t="s">
         <v>195</v>
       </c>
-      <c r="D17" s="137" t="s">
+      <c r="D17" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="E17" s="137" t="s">
+      <c r="E17" s="102" t="s">
         <v>227</v>
       </c>
-      <c r="F17" s="137" t="s">
+      <c r="F17" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="138" t="s">
+      <c r="G17" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="140" t="s">
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="140"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="140"/>
-      <c r="P17" s="140"/>
-      <c r="Q17" s="140" t="s">
+      <c r="L17" s="105"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="R17" s="140"/>
-      <c r="S17" s="142"/>
-      <c r="T17" s="134"/>
-      <c r="U17" s="144"/>
-      <c r="V17" s="134"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="99"/>
     </row>
     <row r="18" spans="1:22" ht="28.5">
-      <c r="A18" s="136">
+      <c r="A18" s="101">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="102" t="s">
         <v>228</v>
       </c>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="102" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="137" t="s">
+      <c r="D18" s="102" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="137" t="s">
+      <c r="E18" s="102" t="s">
         <v>229</v>
       </c>
-      <c r="F18" s="137" t="s">
+      <c r="F18" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="138" t="s">
+      <c r="G18" s="103" t="s">
         <v>197</v>
       </c>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140" t="s">
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="140"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="140"/>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="140" t="s">
+      <c r="L18" s="105"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="R18" s="140"/>
-      <c r="S18" s="142"/>
-      <c r="T18" s="134"/>
-      <c r="U18" s="143" t="s">
+      <c r="R18" s="105"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="108" t="s">
         <v>240</v>
       </c>
-      <c r="V18" s="134" t="s">
-        <v>264</v>
+      <c r="V18" s="99" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="42.75">
-      <c r="A19" s="136">
+      <c r="A19" s="101">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="102" t="s">
         <v>230</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="E19" s="137" t="s">
+      <c r="E19" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="F19" s="137" t="s">
+      <c r="F19" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="138" t="s">
+      <c r="G19" s="103" t="s">
         <v>197</v>
       </c>
-      <c r="H19" s="139"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140" t="s">
+      <c r="H19" s="104"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="140"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="140" t="s">
+      <c r="L19" s="105"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="R19" s="140"/>
-      <c r="S19" s="142"/>
-      <c r="T19" s="134" t="s">
+      <c r="R19" s="105"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="99" t="s">
         <v>246</v>
       </c>
-      <c r="U19" s="143" t="s">
+      <c r="U19" s="108" t="s">
         <v>242</v>
       </c>
-      <c r="V19" s="134" t="s">
-        <v>264</v>
+      <c r="V19" s="99" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="136">
+      <c r="A20" s="101">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="137" t="s">
+      <c r="B20" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="137" t="s">
+      <c r="D20" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="137" t="s">
+      <c r="E20" s="102" t="s">
         <v>232</v>
       </c>
-      <c r="F20" s="137" t="s">
+      <c r="F20" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="138" t="s">
+      <c r="G20" s="103" t="s">
         <v>197</v>
       </c>
-      <c r="H20" s="139"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="140" t="s">
+      <c r="H20" s="104"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="140"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="139"/>
-      <c r="O20" s="140"/>
-      <c r="P20" s="140"/>
-      <c r="Q20" s="140" t="s">
+      <c r="L20" s="105"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="105"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="R20" s="140"/>
-      <c r="S20" s="142"/>
-      <c r="T20" s="134"/>
-      <c r="U20" s="144"/>
-      <c r="V20" s="134" t="s">
-        <v>264</v>
+      <c r="R20" s="105"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="99" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="42.75">
-      <c r="A21" s="136">
+      <c r="A21" s="101">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="C21" s="137" t="s">
+      <c r="C21" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="102" t="s">
         <v>201</v>
       </c>
-      <c r="E21" s="137" t="s">
+      <c r="E21" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="F21" s="137" t="s">
+      <c r="F21" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="138" t="s">
+      <c r="G21" s="103" t="s">
         <v>197</v>
       </c>
-      <c r="H21" s="139"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="140" t="s">
+      <c r="H21" s="104"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="140"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="140"/>
-      <c r="P21" s="140"/>
-      <c r="Q21" s="140" t="s">
+      <c r="L21" s="105"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="R21" s="140"/>
-      <c r="S21" s="142"/>
-      <c r="T21" s="134"/>
-      <c r="U21" s="143" t="s">
+      <c r="R21" s="105"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="108" t="s">
         <v>242</v>
       </c>
-      <c r="V21" s="134" t="s">
-        <v>264</v>
+      <c r="V21" s="99" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="136">
+      <c r="A22" s="101">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="137" t="s">
+      <c r="B22" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="137" t="s">
+      <c r="C22" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="137" t="s">
+      <c r="D22" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="137" t="s">
+      <c r="F22" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="138" t="s">
+      <c r="G22" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="139"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="140" t="s">
+      <c r="H22" s="104"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="140"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="140"/>
-      <c r="P22" s="140"/>
-      <c r="Q22" s="140" t="s">
+      <c r="L22" s="105"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="R22" s="140"/>
-      <c r="S22" s="142"/>
-      <c r="T22" s="134"/>
-      <c r="U22" s="144"/>
-      <c r="V22" s="145"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="110"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="136">
+      <c r="A23" s="101">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="137" t="s">
+      <c r="C23" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="137" t="s">
+      <c r="D23" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="137" t="s">
+      <c r="E23" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="137" t="s">
+      <c r="F23" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="138" t="s">
+      <c r="G23" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="139"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="140" t="s">
+      <c r="H23" s="104"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="140"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="139"/>
-      <c r="O23" s="140"/>
-      <c r="P23" s="140"/>
-      <c r="Q23" s="140" t="s">
+      <c r="L23" s="105"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="R23" s="140"/>
-      <c r="S23" s="142"/>
-      <c r="T23" s="134"/>
-      <c r="U23" s="144"/>
-      <c r="V23" s="145"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="109"/>
+      <c r="V23" s="110"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="136">
+      <c r="A24" s="101">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="137" t="s">
+      <c r="D24" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="137" t="s">
+      <c r="E24" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="137" t="s">
+      <c r="F24" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="138" t="s">
+      <c r="G24" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="139"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="140" t="s">
+      <c r="H24" s="104"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="140"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="140"/>
-      <c r="P24" s="140"/>
-      <c r="Q24" s="140" t="s">
+      <c r="L24" s="105"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="R24" s="140"/>
-      <c r="S24" s="142"/>
-      <c r="T24" s="134"/>
-      <c r="U24" s="144"/>
-      <c r="V24" s="145"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="109"/>
+      <c r="V24" s="110"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="136">
+      <c r="A25" s="101">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="137" t="s">
+      <c r="C25" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="137" t="s">
+      <c r="D25" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="137" t="s">
+      <c r="E25" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="137" t="s">
+      <c r="F25" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="138" t="s">
+      <c r="G25" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="139"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="140" t="s">
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="140"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="139"/>
-      <c r="O25" s="140"/>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="140" t="s">
+      <c r="L25" s="105"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="R25" s="140"/>
-      <c r="S25" s="142"/>
-      <c r="T25" s="134"/>
-      <c r="U25" s="144"/>
-      <c r="V25" s="145"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="109"/>
+      <c r="V25" s="110"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="136">
+      <c r="A26" s="101">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="137" t="s">
+      <c r="C26" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="137" t="s">
+      <c r="D26" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="137" t="s">
+      <c r="E26" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="F26" s="137" t="s">
+      <c r="F26" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="138" t="s">
+      <c r="G26" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140" t="s">
+      <c r="H26" s="104"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="140"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="140" t="s">
+      <c r="L26" s="105"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="140"/>
-      <c r="S26" s="142"/>
-      <c r="T26" s="134"/>
-      <c r="U26" s="144"/>
-      <c r="V26" s="145"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="110"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="136">
+      <c r="A27" s="101">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="C27" s="102" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="137" t="s">
+      <c r="D27" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="E27" s="137" t="s">
+      <c r="E27" s="102" t="s">
         <v>236</v>
       </c>
-      <c r="F27" s="137" t="s">
+      <c r="F27" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="138" t="s">
+      <c r="G27" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="139"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="140" t="s">
+      <c r="H27" s="104"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="140"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="139"/>
-      <c r="O27" s="140"/>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="140" t="s">
+      <c r="L27" s="105"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="R27" s="140"/>
-      <c r="S27" s="142"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="144"/>
-      <c r="V27" s="145" t="s">
-        <v>265</v>
+      <c r="R27" s="105"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="110" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="28.5">
-      <c r="A28" s="136">
+      <c r="A28" s="101">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B28" s="137" t="s">
+      <c r="B28" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137" t="s">
+      <c r="C28" s="102"/>
+      <c r="D28" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="137" t="s">
+      <c r="E28" s="102" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="137" t="s">
+      <c r="F28" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="138" t="s">
+      <c r="G28" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="139"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140" t="s">
+      <c r="H28" s="104"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="140"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="140"/>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="140" t="s">
+      <c r="L28" s="105"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="R28" s="140"/>
-      <c r="S28" s="142"/>
-      <c r="T28" s="134"/>
-      <c r="U28" s="144"/>
-      <c r="V28" s="146" t="s">
-        <v>266</v>
+      <c r="R28" s="105"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="109"/>
+      <c r="V28" s="111" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="42.75">
-      <c r="A29" s="136">
+      <c r="A29" s="101">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="D29" s="137" t="s">
+      <c r="D29" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="137" t="s">
+      <c r="E29" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="137" t="s">
+      <c r="F29" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="138" t="s">
+      <c r="G29" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="139"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140" t="s">
+      <c r="H29" s="104"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="140"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="140"/>
-      <c r="Q29" s="140" t="s">
+      <c r="L29" s="105"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R29" s="140"/>
-      <c r="S29" s="142"/>
-      <c r="T29" s="134" t="s">
-        <v>273</v>
-      </c>
-      <c r="U29" s="143" t="s">
-        <v>274</v>
-      </c>
-      <c r="V29" s="147" t="s">
+      <c r="R29" s="105"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="U29" s="108" t="s">
+        <v>262</v>
+      </c>
+      <c r="V29" s="112" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="136">
+      <c r="A30" s="101">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B30" s="137" t="s">
+      <c r="B30" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="137" t="s">
+      <c r="C30" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="137" t="s">
+      <c r="D30" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="137" t="s">
+      <c r="E30" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="137" t="s">
+      <c r="F30" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="138" t="s">
+      <c r="G30" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="139"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="140" t="s">
+      <c r="H30" s="104"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="140"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="140"/>
-      <c r="P30" s="140"/>
-      <c r="Q30" s="140" t="s">
+      <c r="L30" s="105"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R30" s="140"/>
-      <c r="S30" s="142"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="144"/>
-      <c r="V30" s="145"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="110"/>
     </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="136">
+    <row r="31" spans="1:22" ht="42.75">
+      <c r="A31" s="101">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="137" t="s">
+      <c r="C31" s="102" t="s">
         <v>248</v>
       </c>
-      <c r="D31" s="137" t="s">
+      <c r="D31" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="137" t="s">
+      <c r="E31" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="137" t="s">
+      <c r="F31" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="138" t="s">
+      <c r="G31" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="139"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="140" t="s">
+      <c r="H31" s="104"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="140"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="139"/>
-      <c r="O31" s="140"/>
-      <c r="P31" s="140"/>
-      <c r="Q31" s="140" t="s">
+      <c r="L31" s="105"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R31" s="140"/>
-      <c r="S31" s="142"/>
-      <c r="T31" s="134" t="s">
+      <c r="R31" s="105"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="124" t="s">
         <v>254</v>
       </c>
-      <c r="U31" s="144"/>
-      <c r="V31" s="145" t="s">
+      <c r="U31" s="108"/>
+      <c r="V31" s="111" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="136">
+      <c r="A32" s="101">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B32" s="137" t="s">
+      <c r="B32" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="137" t="s">
+      <c r="C32" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="D32" s="137" t="s">
+      <c r="D32" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="137" t="s">
+      <c r="E32" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="137" t="s">
+      <c r="F32" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="138" t="s">
+      <c r="G32" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="139"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="140" t="s">
+      <c r="H32" s="104"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="140"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="140"/>
-      <c r="P32" s="140"/>
-      <c r="Q32" s="140" t="s">
+      <c r="L32" s="105"/>
+      <c r="M32" s="106"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R32" s="140"/>
-      <c r="S32" s="142"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="144"/>
-      <c r="V32" s="145"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="110"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="136">
+      <c r="A33" s="101">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B33" s="137" t="s">
+      <c r="B33" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="137" t="s">
+      <c r="C33" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="137"/>
-      <c r="E33" s="137" t="s">
+      <c r="D33" s="102"/>
+      <c r="E33" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="137" t="s">
+      <c r="F33" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="138" t="s">
+      <c r="G33" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="139"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="140" t="s">
+      <c r="H33" s="104"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="140"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="139"/>
-      <c r="O33" s="140"/>
-      <c r="P33" s="140"/>
-      <c r="Q33" s="140" t="s">
+      <c r="L33" s="105"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R33" s="140"/>
-      <c r="S33" s="142"/>
-      <c r="T33" s="134"/>
-      <c r="U33" s="144"/>
-      <c r="V33" s="145"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="99"/>
+      <c r="U33" s="109"/>
+      <c r="V33" s="110"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="136">
+      <c r="A34" s="101">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="148" t="s">
+      <c r="C34" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="148" t="s">
+      <c r="D34" s="102" t="s">
         <v>249</v>
       </c>
-      <c r="E34" s="148" t="s">
+      <c r="E34" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="148" t="s">
+      <c r="F34" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="149" t="s">
+      <c r="G34" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="H34" s="139"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="140" t="s">
+      <c r="H34" s="104"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="140"/>
-      <c r="M34" s="141"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="140"/>
-      <c r="P34" s="140"/>
-      <c r="Q34" s="140" t="s">
+      <c r="L34" s="105"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R34" s="140"/>
-      <c r="S34" s="142"/>
-      <c r="T34" s="134"/>
-      <c r="U34" s="144"/>
-      <c r="V34" s="145"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="109"/>
+      <c r="V34" s="110"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="136">
+      <c r="A35" s="101">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="148" t="s">
+      <c r="B35" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="148" t="s">
+      <c r="C35" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="D35" s="148" t="s">
+      <c r="D35" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="E35" s="148" t="s">
+      <c r="E35" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="148" t="s">
+      <c r="F35" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="149" t="s">
+      <c r="G35" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="139"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="140" t="s">
+      <c r="H35" s="104"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="140"/>
-      <c r="M35" s="141"/>
-      <c r="N35" s="139"/>
-      <c r="O35" s="140"/>
-      <c r="P35" s="140"/>
-      <c r="Q35" s="140" t="s">
+      <c r="L35" s="105"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R35" s="140"/>
-      <c r="S35" s="142"/>
-      <c r="T35" s="134"/>
-      <c r="U35" s="144"/>
-      <c r="V35" s="145"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="99"/>
+      <c r="U35" s="109"/>
+      <c r="V35" s="110"/>
     </row>
     <row r="36" spans="1:22" ht="71.25">
-      <c r="A36" s="136">
+      <c r="A36" s="101">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B36" s="148" t="s">
+      <c r="B36" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="148" t="s">
+      <c r="C36" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="148" t="s">
+      <c r="D36" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="E36" s="148" t="s">
+      <c r="E36" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="148" t="s">
+      <c r="F36" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="149" t="s">
+      <c r="G36" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="139"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="140"/>
-      <c r="K36" s="140" t="s">
+      <c r="H36" s="104"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="140"/>
-      <c r="M36" s="141"/>
-      <c r="N36" s="139"/>
-      <c r="O36" s="140"/>
-      <c r="P36" s="140"/>
-      <c r="Q36" s="140" t="s">
+      <c r="L36" s="105"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R36" s="140"/>
-      <c r="S36" s="142"/>
-      <c r="T36" s="134"/>
-      <c r="U36" s="144"/>
-      <c r="V36" s="146" t="s">
+      <c r="R36" s="105"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="99"/>
+      <c r="U36" s="109"/>
+      <c r="V36" s="111" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="136">
+      <c r="A37" s="101">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B37" s="148" t="s">
+      <c r="B37" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="148" t="s">
+      <c r="C37" s="102" t="s">
         <v>251</v>
       </c>
-      <c r="D37" s="148" t="s">
+      <c r="D37" s="102" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="148" t="s">
+      <c r="E37" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="148" t="s">
+      <c r="F37" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="149" t="s">
+      <c r="G37" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="139"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="140" t="s">
+      <c r="H37" s="104"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L37" s="140"/>
-      <c r="M37" s="141"/>
-      <c r="N37" s="139"/>
-      <c r="O37" s="140"/>
-      <c r="P37" s="140"/>
-      <c r="Q37" s="140" t="s">
+      <c r="L37" s="105"/>
+      <c r="M37" s="106"/>
+      <c r="N37" s="104"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R37" s="140"/>
-      <c r="S37" s="142"/>
-      <c r="T37" s="150"/>
-      <c r="U37" s="144"/>
-      <c r="V37" s="146" t="s">
+      <c r="R37" s="105"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="113"/>
+      <c r="U37" s="109"/>
+      <c r="V37" s="111" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="136">
+      <c r="A38" s="101">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B38" s="148" t="s">
+      <c r="B38" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148" t="s">
+      <c r="C38" s="102"/>
+      <c r="D38" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="148" t="s">
+      <c r="E38" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="148" t="s">
+      <c r="F38" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="149" t="s">
+      <c r="G38" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="139"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="140"/>
-      <c r="K38" s="140" t="s">
+      <c r="H38" s="104"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="140"/>
-      <c r="M38" s="141"/>
-      <c r="N38" s="139"/>
-      <c r="O38" s="140"/>
-      <c r="P38" s="140"/>
-      <c r="Q38" s="140" t="s">
+      <c r="L38" s="105"/>
+      <c r="M38" s="106"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R38" s="140"/>
-      <c r="S38" s="142"/>
-      <c r="T38" s="150"/>
-      <c r="U38" s="144"/>
-      <c r="V38" s="145"/>
+      <c r="R38" s="105"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="113"/>
+      <c r="U38" s="109"/>
+      <c r="V38" s="110"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="136">
+      <c r="A39" s="101">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B39" s="148" t="s">
+      <c r="B39" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="148" t="s">
+      <c r="C39" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="148" t="s">
+      <c r="D39" s="102" t="s">
         <v>252</v>
       </c>
-      <c r="E39" s="148" t="s">
+      <c r="E39" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="148" t="s">
+      <c r="F39" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="149" t="s">
+      <c r="G39" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="139"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="140"/>
-      <c r="K39" s="140" t="s">
+      <c r="H39" s="104"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="140"/>
-      <c r="M39" s="141"/>
-      <c r="N39" s="139"/>
-      <c r="O39" s="140"/>
-      <c r="P39" s="140"/>
-      <c r="Q39" s="140" t="s">
+      <c r="L39" s="105"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R39" s="140"/>
-      <c r="S39" s="142"/>
-      <c r="T39" s="150"/>
-      <c r="U39" s="144"/>
-      <c r="V39" s="145"/>
+      <c r="R39" s="105"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="113"/>
+      <c r="U39" s="109"/>
+      <c r="V39" s="110"/>
     </row>
     <row r="40" spans="1:22" ht="71.25">
-      <c r="A40" s="136">
+      <c r="A40" s="101">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B40" s="148" t="s">
+      <c r="B40" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="148"/>
-      <c r="D40" s="148" t="s">
+      <c r="C40" s="102"/>
+      <c r="D40" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="E40" s="148" t="s">
+      <c r="E40" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="148" t="s">
+      <c r="F40" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="149" t="s">
+      <c r="G40" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="139"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="140"/>
-      <c r="K40" s="140" t="s">
+      <c r="H40" s="104"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L40" s="140"/>
-      <c r="M40" s="141"/>
-      <c r="N40" s="139"/>
-      <c r="O40" s="140"/>
-      <c r="P40" s="140"/>
-      <c r="Q40" s="140" t="s">
+      <c r="L40" s="105"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R40" s="140"/>
-      <c r="S40" s="142"/>
-      <c r="T40" s="150"/>
-      <c r="U40" s="144"/>
-      <c r="V40" s="146" t="s">
+      <c r="R40" s="105"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="113"/>
+      <c r="U40" s="109"/>
+      <c r="V40" s="111" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="136">
+      <c r="A41" s="101">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B41" s="148" t="s">
+      <c r="B41" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="148" t="s">
+      <c r="C41" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148" t="s">
+      <c r="D41" s="102"/>
+      <c r="E41" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="148" t="s">
+      <c r="F41" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="149" t="s">
+      <c r="G41" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="139"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="140" t="s">
+      <c r="H41" s="104"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L41" s="140"/>
-      <c r="M41" s="141"/>
-      <c r="N41" s="139"/>
-      <c r="O41" s="140"/>
-      <c r="P41" s="140"/>
-      <c r="Q41" s="140" t="s">
+      <c r="L41" s="105"/>
+      <c r="M41" s="106"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="105"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R41" s="140"/>
-      <c r="S41" s="142"/>
-      <c r="T41" s="150"/>
-      <c r="U41" s="144"/>
-      <c r="V41" s="145"/>
+      <c r="R41" s="105"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="113"/>
+      <c r="U41" s="109"/>
+      <c r="V41" s="110"/>
     </row>
     <row r="42" spans="1:22" ht="57.75" thickBot="1">
-      <c r="A42" s="151">
+      <c r="A42" s="114">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B42" s="152" t="s">
+      <c r="B42" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="152"/>
-      <c r="D42" s="152"/>
-      <c r="E42" s="152" t="s">
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="152" t="s">
+      <c r="F42" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="153" t="s">
+      <c r="G42" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="154"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="155" t="s">
+      <c r="H42" s="117"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="118"/>
+      <c r="K42" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="155"/>
-      <c r="M42" s="156"/>
-      <c r="N42" s="154"/>
-      <c r="O42" s="155"/>
-      <c r="P42" s="155"/>
-      <c r="Q42" s="155" t="s">
+      <c r="L42" s="118"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="117"/>
+      <c r="O42" s="118"/>
+      <c r="P42" s="118"/>
+      <c r="Q42" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="R42" s="155"/>
-      <c r="S42" s="157"/>
-      <c r="T42" s="158"/>
-      <c r="U42" s="159"/>
-      <c r="V42" s="160" t="s">
+      <c r="R42" s="118"/>
+      <c r="S42" s="120"/>
+      <c r="T42" s="121"/>
+      <c r="U42" s="122"/>
+      <c r="V42" s="123" t="s">
         <v>177</v>
       </c>
     </row>
@@ -15849,51 +15908,51 @@
     </row>
     <row r="4" spans="1:20" ht="15" thickBot="1"/>
     <row r="5" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="72" t="s">
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="75" t="s">
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="76"/>
-      <c r="T5" s="77" t="s">
+      <c r="S5" s="148"/>
+      <c r="T5" s="149" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="84"/>
+      <c r="A6" s="152"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="156"/>
       <c r="F6" s="29" t="s">
         <v>10</v>
       </c>
@@ -15936,7 +15995,7 @@
       <c r="S6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="78"/>
+      <c r="T6" s="150"/>
     </row>
     <row r="7" spans="1:20" ht="39" customHeight="1" thickBot="1">
       <c r="A7" s="52">
@@ -16552,6 +16611,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e47b21de-6aa2-4397-bc9c-dfadd9f0c5dc" xsi:nil="true"/>
+    <_x72b6__x614b__x7ba1__x7406_ xmlns="4d5f495e-8872-4613-b41e-44adb53a887e" xsi:nil="true"/>
+    <_x7d0d__x671f_ xmlns="4d5f495e-8872-4613-b41e-44adb53a887e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d5f495e-8872-4613-b41e-44adb53a887e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="4d5f495e-8872-4613-b41e-44adb53a887e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100CE4925CEB4767D4088405B3A37F02A88" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="074d3528a928c679d67d1ad12dfa4912">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5f495e-8872-4613-b41e-44adb53a887e" xmlns:ns3="e47b21de-6aa2-4397-bc9c-dfadd9f0c5dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1deb7a9c2e5ecc746ac0194f551b1971" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5f495e-8872-4613-b41e-44adb53a887e"/>
@@ -16806,30 +16888,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F338FC11-BBCB-47C9-AC88-1394922B1D70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e47b21de-6aa2-4397-bc9c-dfadd9f0c5dc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d5f495e-8872-4613-b41e-44adb53a887e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e47b21de-6aa2-4397-bc9c-dfadd9f0c5dc" xsi:nil="true"/>
-    <_x72b6__x614b__x7ba1__x7406_ xmlns="4d5f495e-8872-4613-b41e-44adb53a887e" xsi:nil="true"/>
-    <_x7d0d__x671f_ xmlns="4d5f495e-8872-4613-b41e-44adb53a887e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d5f495e-8872-4613-b41e-44adb53a887e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="4d5f495e-8872-4613-b41e-44adb53a887e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57C86C5-AA83-4578-A94F-2CEA182F4499}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AA18B99-662D-4131-8B53-B6862651DBDA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16846,29 +16930,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57C86C5-AA83-4578-A94F-2CEA182F4499}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F338FC11-BBCB-47C9-AC88-1394922B1D70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e47b21de-6aa2-4397-bc9c-dfadd9f0c5dc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d5f495e-8872-4613-b41e-44adb53a887e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>